--- a/resources/TestDataSheet.xlsx
+++ b/resources/TestDataSheet.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VNatarajan\personal-ws\light-test-automation-framework\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veera/eclipse-workspace/light-test-automation-framework/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="615" windowWidth="19740" windowHeight="6045" tabRatio="725"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationData" sheetId="2" r:id="rId1"/>
-    <sheet name="LoginData" sheetId="3" r:id="rId2"/>
+    <sheet name="BSE_StockList" sheetId="4" r:id="rId2"/>
+    <sheet name="BSE_StockList_Daily" sheetId="5" r:id="rId3"/>
+    <sheet name="LoginData" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BSE_StockList!$A$1:$J$13</definedName>
+  </definedNames>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>Test_ID</t>
   </si>
@@ -131,12 +144,111 @@
   </si>
   <si>
     <t>t22st@test.com68629</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>BSE Scraper</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>StockCode</t>
+  </si>
+  <si>
+    <t>StockId</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>BSE Daily Scraper</t>
+  </si>
+  <si>
+    <t>22-08-2018</t>
+  </si>
+  <si>
+    <t>M&amp;amp;M</t>
+  </si>
+  <si>
+    <t>YESBANK</t>
+  </si>
+  <si>
+    <t>UNITDSPR</t>
+  </si>
+  <si>
+    <t>LUPIN</t>
+  </si>
+  <si>
+    <t>L&amp;amp;TFH</t>
+  </si>
+  <si>
+    <t>M&amp;amp;MFIN</t>
+  </si>
+  <si>
+    <t>LICHSGFIN</t>
+  </si>
+  <si>
+    <t>CHOLAFIN</t>
+  </si>
+  <si>
+    <t>RAJESHEXPO</t>
+  </si>
+  <si>
+    <t>JUBLFOOD</t>
+  </si>
+  <si>
+    <t>QUESS</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>M&amp;M</t>
+  </si>
+  <si>
+    <t>L&amp;TFH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,25 +302,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -216,13 +328,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -231,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -244,6 +356,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -307,9 +423,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -337,31 +453,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -389,23 +488,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,32 +666,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.83203125" style="3"/>
+    <col min="16" max="16" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="3"/>
+    <col min="18" max="18" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -665,7 +747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -687,7 +769,7 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -752,22 +834,353 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>500520</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4">
+        <v>532648</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>532432</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>500257</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>533519</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8">
+        <v>532720</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>500253</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>511243</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>531500</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>533155</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13">
+        <v>539978</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -781,7 +1194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
         <v>32</v>
@@ -789,7 +1202,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -803,7 +1216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>34</v>
@@ -811,7 +1224,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
